--- a/trained_models_old_clean/MLP/arrhythmia/results_table.xlsx
+++ b/trained_models_old_clean/MLP/arrhythmia/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.35532987330372157, 'beta_2': 0.8199044149280549, 'epsilon': 0.5030941477966999, 'learning_rate': 'adaptive', 'momentum': 0.4892254993109375, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.45311076628522495}</t>
+          <t>{'beta_1': 0.8867323269570756, 'beta_2': 0.35414507380630195, 'epsilon': 0.8132998216596776, 'learning_rate': 'adaptive', 'momentum': 0.09067076824664133, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3007589027504035}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.5905511811023622</v>
+        <v>0.5275590551181102</v>
       </c>
     </row>
     <row r="3">
@@ -540,7 +540,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5464162891792802, 'beta_2': 0.8532828757804921, 'epsilon': 0.039163098458236005, 'learning_rate': 'invscaling', 'momentum': 0.7697890206778347, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.31538720413305543}</t>
+          <t>{'beta_1': 0.562460812878451, 'beta_2': 0.17146917581155258, 'epsilon': 0.7937364809538997, 'learning_rate': 'constant', 'momentum': 0.8038453618794522, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3267755759449551}</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.25978630022382754, 'beta_2': 0.1458274170667079, 'epsilon': 0.36800399160826824, 'learning_rate': 'invscaling', 'momentum': 0.28783376214007295, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.18621159518672326}</t>
+          <t>{'beta_1': 0.34987147982242534, 'beta_2': 0.14473122896490387, 'epsilon': 0.730769855487605, 'learning_rate': 'invscaling', 'momentum': 0.12236523402169797, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.1796481751174227}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.5196850393700787</v>
+        <v>0.5354330708661418</v>
       </c>
     </row>
     <row r="5">
@@ -612,7 +612,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.61323399556084, 'beta_2': 0.7156937147358908, 'epsilon': 0.2872158695089587, 'learning_rate': 'adaptive', 'momentum': 0.23454990206703086, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19026050892333246}</t>
+          <t>{'beta_1': 0.8717780047919479, 'beta_2': 0.27326849278082016, 'epsilon': 0.7972487870786511, 'learning_rate': 'invscaling', 'momentum': 0.6798794564067695, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.48340861659875267}</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.06297525137970737, 'beta_2': 0.555093593527375, 'epsilon': 0.009230833413054227, 'learning_rate': 'invscaling', 'momentum': 0.7851529120231378, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5864101661863267}</t>
+          <t>{'beta_1': 0.66957812472251, 'beta_2': 0.2207600533518455, 'epsilon': 0.3350163768849147, 'learning_rate': 'constant', 'momentum': 0.9666819873735142, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9328824379767133}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.5511811023622047</v>
+        <v>0.5354330708661418</v>
       </c>
     </row>
     <row r="7">
@@ -684,11 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.824955554146974, 'beta_2': 0.29643507613087744, 'epsilon': 0.14667350486551128, 'learning_rate': 'invscaling', 'momentum': 0.3648573130917908, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9598271493776032}</t>
+          <t>{'beta_1': 0.7723104705008167, 'beta_2': 0.9577821821335364, 'epsilon': 0.11720315990442622, 'learning_rate': 'invscaling', 'momentum': 0.9364681001409744, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.05250816744440845}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.5354330708661418</v>
+        <v>0.5196850393700787</v>
       </c>
     </row>
     <row r="8">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4151926526743223, 'beta_2': 0.9356804910819219, 'epsilon': 0.7214618398138984, 'learning_rate': 'constant', 'momentum': 0.3719187485124613, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.24768502249231594}</t>
+          <t>{'beta_1': 0.31310710221217825, 'beta_2': 0.19065915415998982, 'epsilon': 0.9010217089966883, 'learning_rate': 'constant', 'momentum': 0.2711856325092864, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.19861675008444746}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.6062992125984252</v>
+        <v>0.6456692913385826</v>
       </c>
     </row>
     <row r="9">
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.28254252745470015, 'beta_2': 0.6953619013990796, 'epsilon': 0.19861124423877946, 'learning_rate': 'invscaling', 'momentum': 0.08688567080227105, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.23989203008963}</t>
+          <t>{'beta_1': 0.6975502293404723, 'beta_2': 0.33516267150622375, 'epsilon': 0.14753789262850064, 'learning_rate': 'invscaling', 'momentum': 0.24190170420148482, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5219962736299825}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.5196850393700787</v>
+        <v>0.6062992125984252</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4214226733019249, 'beta_2': 0.38793128395292603, 'epsilon': 0.1602331427702575, 'learning_rate': 'invscaling', 'momentum': 0.8956912912102034, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8783724953799941}</t>
+          <t>{'beta_1': 0.28460063503317745, 'beta_2': 0.10388408946587702, 'epsilon': 0.9069905590531175, 'learning_rate': 'invscaling', 'momentum': 0.7300025047009917, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5533152433905455}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.5354330708661418</v>
+        <v>0.5511811023622047</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.33989100308262865, 'beta_2': 0.2381323969631391, 'epsilon': 0.5098902102881291, 'learning_rate': 'invscaling', 'momentum': 0.2536073790650063, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9126706209463072}</t>
+          <t>{'beta_1': 0.7167682396362478, 'beta_2': 0.6101548241976318, 'epsilon': 0.6943929545621215, 'learning_rate': 'invscaling', 'momentum': 0.620519983565336, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.41578751304691375}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.5354330708661418</v>
+        <v>0.5196850393700787</v>
       </c>
     </row>
     <row r="12">
@@ -864,7 +864,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4562309056652962, 'beta_2': 0.8239729079090322, 'epsilon': 0.6679372419381273, 'learning_rate': 'invscaling', 'momentum': 0.47314297846564424, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.733289134316726}</t>
+          <t>{'beta_1': 0.4681107689374008, 'beta_2': 0.21364682348509959, 'epsilon': 0.8885808137686589, 'learning_rate': 'adaptive', 'momentum': 0.8560349969338062, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2018381334111935}</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7167682396362478, 'beta_2': 0.6101548241976318, 'epsilon': 0.6943929545621215, 'learning_rate': 'invscaling', 'momentum': 0.620519983565336, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.41578751304691375}</t>
+          <t>{'beta_1': 0.833663933541544, 'beta_2': 0.1872573088827188, 'epsilon': 0.004763609386505701, 'learning_rate': 'constant', 'momentum': 0.34010682940846015, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6864476241430553}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.5748031496062992</v>
+        <v>0.5511811023622047</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.12914092473644753, 'beta_2': 0.6687387117714806, 'epsilon': 0.8959135612925455, 'learning_rate': 'invscaling', 'momentum': 0.5006920990205621, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2861476039966042}</t>
+          <t>{'beta_1': 0.6520504287434347, 'beta_2': 0.939530597109095, 'epsilon': 0.271314566053248, 'learning_rate': 'invscaling', 'momentum': 0.8603830798416068, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5541987569863228}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.5590551181102362</v>
+        <v>0.5039370078740157</v>
       </c>
     </row>
     <row r="15">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.187154715269015, 'beta_2': 0.019221200853404896, 'epsilon': 0.7697683033194272, 'learning_rate': 'invscaling', 'momentum': 0.19967283393019697, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5905726936267424}</t>
+          <t>{'beta_1': 0.6508527181139733, 'beta_2': 0.38159210878680017, 'epsilon': 0.33820372777845686, 'learning_rate': 'invscaling', 'momentum': 0.6141750023638414, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1992281464241792}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.5275590551181102</v>
+        <v>0.5196850393700787</v>
       </c>
     </row>
     <row r="16">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.17632288950017108, 'beta_2': 0.938221748178283, 'epsilon': 0.5058059117993652, 'learning_rate': 'invscaling', 'momentum': 0.4671194071688368, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.30417355738924656}</t>
+          <t>{'beta_1': 0.23054316734460878, 'beta_2': 0.32559801588167764, 'epsilon': 0.7076519067695602, 'learning_rate': 'adaptive', 'momentum': 0.3709732519780914, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2795299433788142}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.5748031496062992</v>
+        <v>0.5511811023622047</v>
       </c>
     </row>
     <row r="17">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9098145096079977, 'beta_2': 0.5030242919626197, 'epsilon': 0.6202207208800341, 'learning_rate': 'adaptive', 'momentum': 0.7063707974895619, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.03791166827812342}</t>
+          <t>{'beta_1': 0.7277370293981251, 'beta_2': 0.33601430464162907, 'epsilon': 0.7646935113620771, 'learning_rate': 'invscaling', 'momentum': 0.9488092614228859, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.07580426311938915}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.5748031496062992</v>
+        <v>0.5275590551181102</v>
       </c>
     </row>
     <row r="18">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7277370293981251, 'beta_2': 0.33601430464162907, 'epsilon': 0.7646935113620771, 'learning_rate': 'invscaling', 'momentum': 0.9488092614228859, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.07580426311938915}</t>
+          <t>{'beta_1': 7.362573367298308e-05, 'beta_2': 0.2539858490904201, 'epsilon': 0.7483515060430702, 'learning_rate': 'constant', 'momentum': 0.9682855167608868, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.37554935508454257}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.5354330708661418</v>
+        <v>0.5275590551181102</v>
       </c>
     </row>
     <row r="19">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8532607701645135, 'beta_2': 0.13468382704395232, 'epsilon': 0.9641242949523154, 'learning_rate': 'invscaling', 'momentum': 0.7298276355292675, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7348137746305611}</t>
+          <t>{'beta_1': 0.5284109891018522, 'beta_2': 0.30414191798303086, 'epsilon': 0.9969642890773448, 'learning_rate': 'invscaling', 'momentum': 0.5973029395241212, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.005189627256445006}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.6535433070866141</v>
+        <v>0.5984251968503937</v>
       </c>
     </row>
     <row r="20">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.12789284958036584, 'beta_2': 0.5826096381595377, 'epsilon': 0.002062570938847292, 'learning_rate': 'invscaling', 'momentum': 0.4124335494348642, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8937727558492876}</t>
+          <t>{'beta_1': 0.8013857329555096, 'beta_2': 0.27456954982004717, 'epsilon': 0.7882252319748868, 'learning_rate': 'adaptive', 'momentum': 0.43696518540025087, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9700310320731962}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.5511811023622047</v>
+        <v>0.5669291338582677</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8262029973985192, 'beta_2': 0.17031668652341375, 'epsilon': 0.7005474479755266, 'learning_rate': 'invscaling', 'momentum': 0.1979076029143242, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.05690645260383198}</t>
+          <t>{'beta_1': 0.7421553937886406, 'beta_2': 0.1958047535264583, 'epsilon': 0.28604321732657556, 'learning_rate': 'invscaling', 'momentum': 0.045677082037155925, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.16897605441274532}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.5196850393700787</v>
+        <v>0.5669291338582677</v>
       </c>
     </row>
   </sheetData>
